--- a/1 NHI impact/output/sfig_2_overlap.xlsx
+++ b/1 NHI impact/output/sfig_2_overlap.xlsx
@@ -396,7 +396,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -417,7 +417,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -438,7 +438,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Never treated</t>
+          <t>Never-treated</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Last treated</t>
+          <t>Last-treated</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -6003,8 +6003,8 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -6025,8 +6025,8 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -6047,8 +6047,8 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -6069,8 +6069,8 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -6091,8 +6091,8 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -6113,8 +6113,8 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -6135,8 +6135,8 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -6157,8 +6157,8 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -6179,8 +6179,8 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -6201,8 +6201,8 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -6223,8 +6223,8 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -6245,8 +6245,8 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -6267,8 +6267,8 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -6289,8 +6289,8 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -6311,8 +6311,8 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -6333,8 +6333,8 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -6355,8 +6355,8 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -6377,8 +6377,8 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -6399,8 +6399,8 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -6421,8 +6421,8 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -6443,8 +6443,8 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -6465,8 +6465,8 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -6487,8 +6487,8 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -6509,8 +6509,8 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -6531,8 +6531,8 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -6553,8 +6553,8 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -6575,8 +6575,8 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -6597,8 +6597,8 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -6619,8 +6619,8 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -6641,8 +6641,8 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -6663,8 +6663,8 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -6685,8 +6685,8 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -6707,8 +6707,8 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -6729,8 +6729,8 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -6751,8 +6751,8 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -6773,8 +6773,8 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -6795,8 +6795,8 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -6817,8 +6817,8 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -6839,8 +6839,8 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -6861,8 +6861,8 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -6883,8 +6883,8 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -6905,8 +6905,8 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -6927,8 +6927,8 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -6949,8 +6949,8 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -6971,8 +6971,8 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -6993,8 +6993,8 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -7015,8 +7015,8 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -7037,8 +7037,8 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -7059,8 +7059,8 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -7081,8 +7081,8 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -7103,8 +7103,8 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -7125,8 +7125,8 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -7147,8 +7147,8 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -7169,8 +7169,8 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -7191,8 +7191,8 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -7213,8 +7213,8 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -7235,8 +7235,8 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -7257,8 +7257,8 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -7279,8 +7279,8 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -7301,8 +7301,8 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -7323,8 +7323,8 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -7345,8 +7345,8 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -7367,8 +7367,8 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -7389,8 +7389,8 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -7411,8 +7411,8 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -7433,8 +7433,8 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -7455,8 +7455,8 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -7477,8 +7477,8 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -7499,8 +7499,8 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -7521,8 +7521,8 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -7543,8 +7543,8 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -7565,8 +7565,8 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -7587,8 +7587,8 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -7609,8 +7609,8 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -7631,8 +7631,8 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -7653,8 +7653,8 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -7675,8 +7675,8 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -7697,8 +7697,8 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -7719,8 +7719,8 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -7741,8 +7741,8 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -7763,8 +7763,8 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -7785,8 +7785,8 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -7807,8 +7807,8 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -7829,8 +7829,8 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -7851,8 +7851,8 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -7873,8 +7873,8 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -7895,8 +7895,8 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -7917,8 +7917,8 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -7939,8 +7939,8 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -7961,8 +7961,8 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -7983,8 +7983,8 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -8005,8 +8005,8 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -8027,8 +8027,8 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -8049,8 +8049,8 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -8071,8 +8071,8 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -8093,8 +8093,8 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -8115,8 +8115,8 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -8137,8 +8137,8 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -8159,8 +8159,8 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -8181,8 +8181,8 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -8203,8 +8203,8 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -8225,8 +8225,8 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -8247,8 +8247,8 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -8269,8 +8269,8 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -8291,8 +8291,8 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -8313,8 +8313,8 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -8335,8 +8335,8 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -8357,8 +8357,8 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -8379,8 +8379,8 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -8401,8 +8401,8 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -8423,8 +8423,8 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -8445,8 +8445,8 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -8467,8 +8467,8 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -8489,8 +8489,8 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -8511,8 +8511,8 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -8533,8 +8533,8 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -8555,8 +8555,8 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -8577,8 +8577,8 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -8599,8 +8599,8 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -8621,8 +8621,8 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -8643,8 +8643,8 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -8665,8 +8665,8 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -8687,8 +8687,8 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -8709,8 +8709,8 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -8731,8 +8731,8 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -8753,8 +8753,8 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -8775,8 +8775,8 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -8797,8 +8797,8 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -8819,8 +8819,8 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -8841,8 +8841,8 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -8863,8 +8863,8 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -8885,8 +8885,8 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -8907,8 +8907,8 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -8929,8 +8929,8 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -8951,8 +8951,8 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -8973,8 +8973,8 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -8995,8 +8995,8 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -9017,8 +9017,8 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -9039,8 +9039,8 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -9061,8 +9061,8 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -9083,8 +9083,8 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -9105,8 +9105,8 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -9127,8 +9127,8 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -9149,8 +9149,8 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -9171,8 +9171,8 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -9193,8 +9193,8 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -9215,8 +9215,8 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -9237,8 +9237,8 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -9259,8 +9259,8 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -9281,8 +9281,8 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -9303,8 +9303,8 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -9325,8 +9325,8 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -9347,8 +9347,8 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -9369,8 +9369,8 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -9391,8 +9391,8 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -9413,8 +9413,8 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -9435,8 +9435,8 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -9457,8 +9457,8 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -9479,8 +9479,8 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -9501,8 +9501,8 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -9523,8 +9523,8 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -9545,8 +9545,8 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -9567,8 +9567,8 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -9589,8 +9589,8 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -9611,8 +9611,8 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -9633,8 +9633,8 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -9655,8 +9655,8 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -9677,8 +9677,8 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -9699,8 +9699,8 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -9721,8 +9721,8 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -9743,8 +9743,8 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -9765,8 +9765,8 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -9787,8 +9787,8 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -9809,8 +9809,8 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -9831,8 +9831,8 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -9853,8 +9853,8 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -9875,8 +9875,8 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -9897,8 +9897,8 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -9919,8 +9919,8 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -9941,8 +9941,8 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -9963,8 +9963,8 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -9985,8 +9985,8 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -10007,8 +10007,8 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -10029,8 +10029,8 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -10051,8 +10051,8 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -10073,8 +10073,8 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -10095,8 +10095,8 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -10117,8 +10117,8 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -10139,8 +10139,8 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -10161,8 +10161,8 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -10183,8 +10183,8 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -10205,8 +10205,8 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -10227,8 +10227,8 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -10249,8 +10249,8 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -10271,8 +10271,8 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -10293,8 +10293,8 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -10315,8 +10315,8 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Later treated
-(not yet + last treated)</t>
+          <t>Later-treated
+(not-yet- + last-treated)</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
